--- a/Measurements/Nov2010/Results.xlsx
+++ b/Measurements/Nov2010/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-2180" windowWidth="38360" windowHeight="24800" tabRatio="500"/>
+    <workbookView xWindow="-80" yWindow="-2180" windowWidth="28760" windowHeight="18800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+  <si>
+    <t xml:space="preserve"> points-to analysis                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> escape analysis                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> schedule analysis                                  </t>
+  </si>
   <si>
     <t>Philo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,12 +91,40 @@
   </si>
   <si>
     <t xml:space="preserve"> improvement of (4) over (3)                        </t>
+  </si>
+  <si>
+    <t>Gen. OptimizationTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance field interferences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static field interferences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sync. Removal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># monitor enters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1) points-to analysis only                        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.00%"/>
+    <numFmt numFmtId="166" formatCode="0.00%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -118,9 +155,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,618 +489,1063 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>101</v>
-      </c>
-      <c r="C2">
-        <v>90</v>
-      </c>
-      <c r="D2">
-        <v>254</v>
-      </c>
-      <c r="E2">
-        <v>30</v>
-      </c>
-      <c r="F2">
-        <v>286</v>
-      </c>
-      <c r="G2">
-        <v>351</v>
-      </c>
-      <c r="H2">
-        <v>159</v>
-      </c>
-      <c r="I2">
-        <v>444</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>42</v>
-      </c>
-      <c r="C3">
-        <v>27</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>129</v>
-      </c>
-      <c r="G3">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-      <c r="I3">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1">
-        <f>1-(B3/B2)</f>
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>101</v>
+      </c>
+      <c r="C4">
+        <v>90</v>
+      </c>
+      <c r="D4">
+        <v>254</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>286</v>
+      </c>
+      <c r="G4">
+        <v>351</v>
+      </c>
+      <c r="H4">
+        <v>159</v>
+      </c>
+      <c r="I4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>129</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:I6" si="0">1-(B5/B4)</f>
         <v>0.58415841584158423</v>
       </c>
-      <c r="C4" s="1">
-        <f>1-(C3/C2)</f>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="D4" s="1">
-        <f>1-(D3/D2)</f>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E4" s="1">
-        <f>1-(E3/E2)</f>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="F4" s="1">
-        <f>1-(F3/F2)</f>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
         <v>0.54895104895104896</v>
       </c>
-      <c r="G4" s="1">
-        <f>1-(G3/G2)</f>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
         <v>0.95441595441595439</v>
       </c>
-      <c r="H4" s="1">
-        <f>1-(H3/H2)</f>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
         <v>0.94339622641509435</v>
       </c>
-      <c r="I4" s="1">
-        <f>1-(I3/I2)</f>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
         <v>0.8783783783783784</v>
       </c>
-      <c r="J4" s="1">
-        <f>SUM(B4:I4)/8</f>
+      <c r="J6" s="1">
+        <f>SUM(B6:I6)/8</f>
         <v>0.81782916966692421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>1067</v>
-      </c>
-      <c r="C7">
-        <v>1555</v>
-      </c>
-      <c r="D7">
-        <v>2750</v>
-      </c>
-      <c r="E7">
-        <v>1244</v>
-      </c>
-      <c r="F7">
-        <v>2297</v>
-      </c>
-      <c r="G7">
-        <v>5061</v>
-      </c>
-      <c r="H7">
-        <v>996</v>
-      </c>
-      <c r="I7">
-        <v>19916</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>149</v>
-      </c>
-      <c r="C8">
-        <v>720</v>
-      </c>
-      <c r="D8">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>808</v>
-      </c>
-      <c r="F8">
-        <v>451</v>
-      </c>
-      <c r="G8">
-        <v>2159</v>
-      </c>
-      <c r="H8">
-        <v>586</v>
-      </c>
-      <c r="I8">
-        <v>287</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>674</v>
+        <v>1067</v>
       </c>
       <c r="C9">
-        <v>841</v>
+        <v>1555</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>2750</v>
       </c>
       <c r="E9">
-        <v>826</v>
+        <v>1244</v>
       </c>
       <c r="F9">
-        <v>1095</v>
+        <v>2297</v>
       </c>
       <c r="G9">
-        <v>1190</v>
+        <v>5061</v>
       </c>
       <c r="H9">
-        <v>286</v>
+        <v>996</v>
       </c>
       <c r="I9">
-        <v>1352</v>
+        <v>19916</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="C10">
-        <v>616</v>
+        <v>720</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>729</v>
+        <v>808</v>
       </c>
       <c r="F10">
-        <v>323</v>
+        <v>451</v>
       </c>
       <c r="G10">
-        <v>1190</v>
+        <v>2159</v>
       </c>
       <c r="H10">
-        <v>210</v>
+        <v>586</v>
       </c>
       <c r="I10">
-        <v>156</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1">
-        <f>1-(B10/B7)</f>
-        <v>0.9062792877225867</v>
-      </c>
-      <c r="C11" s="1">
-        <f>1-(C10/C7)</f>
-        <v>0.60385852090032155</v>
-      </c>
-      <c r="D11" s="1">
-        <f>1-(D10/D7)</f>
-        <v>0.99781818181818183</v>
-      </c>
-      <c r="E11" s="1">
-        <f>1-(E10/E7)</f>
-        <v>0.41398713826366562</v>
-      </c>
-      <c r="F11" s="1">
-        <f>1-(F10/F7)</f>
-        <v>0.85938180235089245</v>
-      </c>
-      <c r="G11" s="1">
-        <f>1-(G10/G7)</f>
-        <v>0.76486860304287685</v>
-      </c>
-      <c r="H11" s="1">
-        <f>1-(H10/H7)</f>
-        <v>0.78915662650602414</v>
-      </c>
-      <c r="I11" s="1">
-        <f>1-(I10/I7)</f>
-        <v>0.9921671018276762</v>
-      </c>
-      <c r="J11" s="1">
-        <f>SUM(B11:I11)/8</f>
-        <v>0.79093965780402808</v>
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>674</v>
+      </c>
+      <c r="C11">
+        <v>841</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>826</v>
+      </c>
+      <c r="F11">
+        <v>1095</v>
+      </c>
+      <c r="G11">
+        <v>1190</v>
+      </c>
+      <c r="H11">
+        <v>286</v>
+      </c>
+      <c r="I11">
+        <v>1352</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1">
-        <f>1-(B10/B8)</f>
-        <v>0.32885906040268453</v>
-      </c>
-      <c r="C12" s="1">
-        <f>1-(C10/C8)</f>
-        <v>0.14444444444444449</v>
-      </c>
-      <c r="D12" s="1">
-        <f>1-(D10/D8)</f>
-        <v>0.76</v>
-      </c>
-      <c r="E12" s="1">
-        <f>1-(E10/E8)</f>
-        <v>9.7772277227722748E-2</v>
-      </c>
-      <c r="F12" s="1">
-        <f>1-(F10/F8)</f>
-        <v>0.28381374722838137</v>
-      </c>
-      <c r="G12" s="1">
-        <f>1-(G10/G8)</f>
-        <v>0.44881889763779526</v>
-      </c>
-      <c r="H12" s="1">
-        <f>1-(H10/H8)</f>
-        <v>0.64163822525597269</v>
-      </c>
-      <c r="I12" s="1">
-        <f>1-(I10/I8)</f>
-        <v>0.45644599303135891</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" ref="J12:J13" si="0">SUM(B12:I12)/8</f>
-        <v>0.39522408065354497</v>
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>616</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>729</v>
+      </c>
+      <c r="F12">
+        <v>323</v>
+      </c>
+      <c r="G12">
+        <v>1190</v>
+      </c>
+      <c r="H12">
+        <v>210</v>
+      </c>
+      <c r="I12">
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1">
-        <f>1-(B10/B9)</f>
+        <f t="shared" ref="B13:I13" si="1">1-(B12/B9)</f>
+        <v>0.9062792877225867</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.60385852090032155</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99781818181818183</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41398713826366562</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.85938180235089245</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.76486860304287685</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.78915662650602414</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9921671018276762</v>
+      </c>
+      <c r="J13" s="1">
+        <f>SUM(B13:I13)/8</f>
+        <v>0.79093965780402808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" ref="B14:I14" si="2">1-(B12/B10)</f>
+        <v>0.32885906040268453</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14444444444444449</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="2"/>
+        <v>9.7772277227722748E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.28381374722838137</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.44881889763779526</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.64163822525597269</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.45644599303135891</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" ref="J14:J15" si="3">SUM(B14:I14)/8</f>
+        <v>0.39522408065354497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" ref="B15:I15" si="4">1-(B12/B11)</f>
         <v>0.85163204747774479</v>
       </c>
-      <c r="C13" s="1">
-        <f>1-(C10/C9)</f>
+      <c r="C15" s="1">
+        <f t="shared" si="4"/>
         <v>0.26753864447086806</v>
       </c>
-      <c r="D13" s="1">
-        <f>1-(D10/D9)</f>
+      <c r="D15" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E13" s="1">
-        <f>1-(E10/E9)</f>
+      <c r="E15" s="1">
+        <f t="shared" si="4"/>
         <v>0.11743341404358354</v>
       </c>
-      <c r="F13" s="1">
-        <f>1-(F10/F9)</f>
+      <c r="F15" s="1">
+        <f t="shared" si="4"/>
         <v>0.70502283105022834</v>
       </c>
-      <c r="G13" s="1">
-        <f>1-(G10/G9)</f>
+      <c r="G15" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H13" s="1">
-        <f>1-(H10/H9)</f>
+      <c r="H15" s="1">
+        <f t="shared" si="4"/>
         <v>0.26573426573426573</v>
       </c>
-      <c r="I13" s="1">
-        <f>1-(I10/I9)</f>
+      <c r="I15" s="1">
+        <f t="shared" si="4"/>
         <v>0.88461538461538458</v>
       </c>
-      <c r="J13" s="1">
-        <f t="shared" si="0"/>
+      <c r="J15" s="1">
+        <f t="shared" si="3"/>
         <v>0.38649707342400941</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>9.4</v>
-      </c>
-      <c r="C18">
-        <v>10.37</v>
-      </c>
-      <c r="D18">
-        <v>14.88</v>
-      </c>
-      <c r="E18">
-        <v>8.51</v>
-      </c>
-      <c r="F18">
-        <v>135.82</v>
-      </c>
-      <c r="G18">
-        <v>19.29</v>
-      </c>
-      <c r="H18">
-        <v>9.98</v>
-      </c>
-      <c r="I18">
-        <v>258.73</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19">
-        <v>4.58</v>
-      </c>
-      <c r="C19">
-        <v>5.34</v>
-      </c>
-      <c r="D19">
-        <v>5.25</v>
-      </c>
-      <c r="E19">
-        <v>5.19</v>
-      </c>
-      <c r="F19">
-        <v>25.08</v>
-      </c>
-      <c r="G19">
-        <v>7.18</v>
-      </c>
-      <c r="H19">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="I19">
-        <v>58.34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
-        <v>4.16</v>
+        <v>9.4</v>
       </c>
       <c r="C20">
-        <v>4.2300000000000004</v>
+        <v>10.37</v>
       </c>
       <c r="D20">
-        <v>3.56</v>
+        <v>14.88</v>
       </c>
       <c r="E20">
-        <v>3.92</v>
+        <v>8.51</v>
       </c>
       <c r="F20">
-        <v>9.8800000000000008</v>
+        <v>135.82</v>
       </c>
       <c r="G20">
-        <v>3.7</v>
+        <v>19.29</v>
       </c>
       <c r="H20">
-        <v>3.72</v>
+        <v>9.98</v>
       </c>
       <c r="I20">
-        <v>5.83</v>
+        <v>258.73</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>3.97</v>
+        <v>4.58</v>
       </c>
       <c r="C21">
-        <v>4.12</v>
+        <v>5.34</v>
       </c>
       <c r="D21">
-        <v>3.19</v>
+        <v>5.25</v>
       </c>
       <c r="E21">
-        <v>3.68</v>
+        <v>5.19</v>
       </c>
       <c r="F21">
-        <v>10.47</v>
+        <v>25.08</v>
       </c>
       <c r="G21">
-        <v>3.74</v>
+        <v>7.18</v>
       </c>
       <c r="H21">
-        <v>3.69</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="I21">
-        <v>6.32</v>
+        <v>58.34</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="1">
-        <f>1-(B$21/B18)</f>
-        <v>0.57765957446808502</v>
-      </c>
-      <c r="C22" s="1">
-        <f>1-(C$21/C18)</f>
-        <v>0.60270009643201539</v>
-      </c>
-      <c r="D22" s="1">
-        <f>1-(D$21/D18)</f>
-        <v>0.7856182795698925</v>
-      </c>
-      <c r="E22" s="1">
-        <f>1-(E$21/E18)</f>
-        <v>0.56756756756756754</v>
-      </c>
-      <c r="F22" s="1">
-        <f>1-(F$21/F18)</f>
-        <v>0.92291267854513326</v>
-      </c>
-      <c r="G22" s="1">
-        <f>1-(G$21/G18)</f>
-        <v>0.80611715914981852</v>
-      </c>
-      <c r="H22" s="1">
-        <f>1-(H$21/H18)</f>
-        <v>0.63026052104208419</v>
-      </c>
-      <c r="I22" s="1">
-        <f>1-(I$21/I18)</f>
-        <v>0.97557299114907436</v>
-      </c>
-      <c r="J22" s="1">
-        <f>SUM(B22:I22)/8</f>
-        <v>0.73355110849045879</v>
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>4.16</v>
+      </c>
+      <c r="C22">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="D22">
+        <v>3.56</v>
+      </c>
+      <c r="E22">
+        <v>3.92</v>
+      </c>
+      <c r="F22">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="G22">
+        <v>3.7</v>
+      </c>
+      <c r="H22">
+        <v>3.72</v>
+      </c>
+      <c r="I22">
+        <v>5.83</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="1">
-        <f>1-(B$21/B19)</f>
-        <v>0.13318777292576411</v>
-      </c>
-      <c r="C23" s="1">
-        <f>1-(C$21/C19)</f>
-        <v>0.22846441947565543</v>
-      </c>
-      <c r="D23" s="1">
-        <f>1-(D$21/D19)</f>
-        <v>0.39238095238095239</v>
-      </c>
-      <c r="E23" s="1">
-        <f>1-(E$21/E19)</f>
-        <v>0.29094412331406549</v>
-      </c>
-      <c r="F23" s="1">
-        <f>1-(F$21/F19)</f>
-        <v>0.58253588516746402</v>
-      </c>
-      <c r="G23" s="1">
-        <f>1-(G$21/G19)</f>
-        <v>0.47910863509749302</v>
-      </c>
-      <c r="H23" s="1">
-        <f>1-(H$21/H19)</f>
-        <v>0.27075098814229248</v>
-      </c>
-      <c r="I23" s="1">
-        <f>1-(I$21/I19)</f>
-        <v>0.89166952348303052</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" ref="J23:J24" si="1">SUM(B23:I23)/8</f>
-        <v>0.40863028749833968</v>
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>3.97</v>
+      </c>
+      <c r="C23">
+        <v>4.12</v>
+      </c>
+      <c r="D23">
+        <v>3.19</v>
+      </c>
+      <c r="E23">
+        <v>3.68</v>
+      </c>
+      <c r="F23">
+        <v>10.47</v>
+      </c>
+      <c r="G23">
+        <v>3.74</v>
+      </c>
+      <c r="H23">
+        <v>3.69</v>
+      </c>
+      <c r="I23">
+        <v>6.32</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" ref="B24:I26" si="5">1-(B$23/B20)</f>
+        <v>0.57765957446808502</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="5"/>
+        <v>0.60270009643201539</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="5"/>
+        <v>0.7856182795698925</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="5"/>
+        <v>0.56756756756756754</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="5"/>
+        <v>0.92291267854513326</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="5"/>
+        <v>0.80611715914981852</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="5"/>
+        <v>0.63026052104208419</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="5"/>
+        <v>0.97557299114907436</v>
+      </c>
+      <c r="J24" s="1">
+        <f>SUM(B24:I24)/8</f>
+        <v>0.73355110849045879</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="5"/>
+        <v>0.13318777292576411</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="5"/>
+        <v>0.22846441947565543</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="5"/>
+        <v>0.39238095238095239</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="5"/>
+        <v>0.29094412331406549</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="5"/>
+        <v>0.58253588516746402</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="5"/>
+        <v>0.47910863509749302</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="5"/>
+        <v>0.27075098814229248</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="5"/>
+        <v>0.89166952348303052</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" ref="J25:J26" si="6">SUM(B25:I25)/8</f>
+        <v>0.40863028749833968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="5"/>
+        <v>4.5673076923076872E-2</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="5"/>
+        <v>2.6004728132387744E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="5"/>
+        <v>0.1039325842696629</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="5"/>
+        <v>6.1224489795918324E-2</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="5"/>
+        <v>-5.9716599190283493E-2</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.0810810810810922E-2</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="5"/>
+        <v>8.0645161290323619E-3</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="5"/>
+        <v>-8.4048027444253881E-2</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1290494725591238E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>21</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
         <v>17</v>
       </c>
-      <c r="B24" s="1">
-        <f>1-(B$21/B20)</f>
-        <v>4.5673076923076872E-2</v>
-      </c>
-      <c r="C24" s="1">
-        <f>1-(C$21/C20)</f>
-        <v>2.6004728132387744E-2</v>
-      </c>
-      <c r="D24" s="1">
-        <f>1-(D$21/D20)</f>
-        <v>0.1039325842696629</v>
-      </c>
-      <c r="E24" s="1">
-        <f>1-(E$21/E20)</f>
-        <v>6.1224489795918324E-2</v>
-      </c>
-      <c r="F24" s="1">
-        <f>1-(F$21/F20)</f>
-        <v>-5.9716599190283493E-2</v>
-      </c>
-      <c r="G24" s="1">
-        <f>1-(G$21/G20)</f>
-        <v>-1.0810810810810922E-2</v>
-      </c>
-      <c r="H24" s="1">
-        <f>1-(H$21/H20)</f>
-        <v>8.0645161290323619E-3</v>
-      </c>
-      <c r="I24" s="1">
-        <f>1-(I$21/I20)</f>
-        <v>-8.4048027444253881E-2</v>
-      </c>
-      <c r="J24" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1290494725591238E-2</v>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="B36" s="2">
+        <f>1-(B32/B$31)</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" ref="C36:I36" si="7">1-(C32/C$31)</f>
+        <v>6.6666666666666652E-2</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="7"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="7"/>
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="7"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="J36" s="2">
+        <f>SUM(B36:I36)/8</f>
+        <v>0.14136904761904762</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="B37" s="2">
+        <f t="shared" ref="B37:I39" si="8">1-(B33/B$31)</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="8"/>
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="8"/>
+        <v>0.85714285714285721</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="8"/>
+        <v>0.85</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" ref="J37:J39" si="9">SUM(B37:I37)/8</f>
+        <v>0.58839285714285716</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" s="2">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="8"/>
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="8"/>
+        <v>0.80952380952380953</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="9"/>
+        <v>0.66369047619047616</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="B39" s="2">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="8"/>
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="8"/>
+        <v>0.85714285714285721</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="9"/>
+        <v>0.68839285714285725</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>17.29</v>
+      </c>
+      <c r="C43">
+        <v>24.95</v>
+      </c>
+      <c r="D43">
+        <v>20.58</v>
+      </c>
+      <c r="E43">
+        <v>19.32</v>
+      </c>
+      <c r="F43">
+        <v>130.1</v>
+      </c>
+      <c r="G43">
+        <v>24.76</v>
+      </c>
+      <c r="H43">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="I43">
+        <v>126.73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>3.61</v>
+      </c>
+      <c r="C44">
+        <v>3.66</v>
+      </c>
+      <c r="D44">
+        <v>3.46</v>
+      </c>
+      <c r="E44">
+        <v>3.71</v>
+      </c>
+      <c r="F44">
+        <v>5.63</v>
+      </c>
+      <c r="G44">
+        <v>3.62</v>
+      </c>
+      <c r="H44">
+        <v>3.6</v>
+      </c>
+      <c r="I44">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>1.33</v>
+      </c>
+      <c r="C45">
+        <v>1.5</v>
+      </c>
+      <c r="D45">
+        <v>1.55</v>
+      </c>
+      <c r="E45">
+        <v>1.4</v>
+      </c>
+      <c r="F45">
+        <v>2.08</v>
+      </c>
+      <c r="G45">
+        <v>1.52</v>
+      </c>
+      <c r="H45">
+        <v>1.56</v>
+      </c>
+      <c r="I45">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="B46" s="3">
+        <f>(B44+B45)/B43</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" ref="C46:I46" si="10">(C44+C45)/C43</f>
+        <v>0.20681362725450902</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="10"/>
+        <v>0.2434402332361516</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="10"/>
+        <v>0.26449275362318836</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="10"/>
+        <v>5.9262106072252116E-2</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="10"/>
+        <v>0.2075928917609047</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="10"/>
+        <v>0.26021180030257191</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="10"/>
+        <v>5.5866803440385068E-2</v>
+      </c>
+      <c r="J46" s="3">
+        <f>AVERAGE(B46:I46)</f>
+        <v>0.19792431267553104</v>
       </c>
     </row>
   </sheetData>

--- a/Measurements/Nov2010/Results.xlsx
+++ b/Measurements/Nov2010/Results.xlsx
@@ -19,7 +19,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+  <si>
+    <t># of objects total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% of (1) vs total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% of (2) vs total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% of (3) vs total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improvement of (3) over (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improvement of (3) over (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improvement of (2) over (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% reduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3) p2 + escape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4) p2 + escape + schedule analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t xml:space="preserve"> points-to analysis                                 </t>
   </si>
@@ -114,6 +154,54 @@
   </si>
   <si>
     <t xml:space="preserve"> (1) points-to analysis only                        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shared Objects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># of objects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) points-to + escape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3) points-to + escape + schedule analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2) points-to + schedule analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parallel Methods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># of parallel methods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) schedule analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Methods total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% parallel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2) schedule analysis + p2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shared objects by new statement</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,9 +209,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.00%"/>
-    <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -155,11 +242,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74:I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -502,41 +590,41 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>101</v>
@@ -565,7 +653,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>42</v>
@@ -594,7 +682,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ref="B6:I6" si="0">1-(B5/B4)</f>
@@ -635,12 +723,12 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>1067</v>
@@ -669,7 +757,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>149</v>
@@ -698,7 +786,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>674</v>
@@ -727,7 +815,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>100</v>
@@ -756,7 +844,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" ref="B13:I13" si="1">1-(B12/B9)</f>
@@ -797,7 +885,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" ref="B14:I14" si="2">1-(B12/B10)</f>
@@ -838,7 +926,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" ref="B15:I15" si="4">1-(B12/B11)</f>
@@ -879,12 +967,12 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>9.4</v>
@@ -913,7 +1001,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>4.58</v>
@@ -942,7 +1030,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>4.16</v>
@@ -971,7 +1059,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>3.97</v>
@@ -1000,7 +1088,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" ref="B24:I26" si="5">1-(B$23/B20)</f>
@@ -1041,7 +1129,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="5"/>
@@ -1082,7 +1170,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="5"/>
@@ -1123,12 +1211,12 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -1157,7 +1245,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -1186,7 +1274,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -1215,7 +1303,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -1244,7 +1332,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -1425,7 +1513,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B43">
         <v>17.29</v>
@@ -1454,7 +1542,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>3.61</v>
@@ -1483,7 +1571,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B45">
         <v>1.33</v>
@@ -1548,7 +1636,711 @@
         <v>0.19792431267553104</v>
       </c>
     </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51">
+        <v>42</v>
+      </c>
+      <c r="C51">
+        <v>29</v>
+      </c>
+      <c r="D51">
+        <v>12</v>
+      </c>
+      <c r="E51">
+        <v>22</v>
+      </c>
+      <c r="F51">
+        <v>68</v>
+      </c>
+      <c r="G51">
+        <v>80</v>
+      </c>
+      <c r="H51">
+        <v>55</v>
+      </c>
+      <c r="I51">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52">
+        <v>168</v>
+      </c>
+      <c r="C52">
+        <v>73</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>63</v>
+      </c>
+      <c r="F52">
+        <v>257</v>
+      </c>
+      <c r="G52">
+        <v>11</v>
+      </c>
+      <c r="H52">
+        <v>41</v>
+      </c>
+      <c r="I52">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53">
+        <v>40</v>
+      </c>
+      <c r="C53">
+        <v>26</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>18</v>
+      </c>
+      <c r="F53">
+        <v>65</v>
+      </c>
+      <c r="G53">
+        <v>57</v>
+      </c>
+      <c r="H53">
+        <v>43</v>
+      </c>
+      <c r="I53">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>85</v>
+      </c>
+      <c r="C55">
+        <v>92</v>
+      </c>
+      <c r="D55">
+        <v>132</v>
+      </c>
+      <c r="E55">
+        <v>89</v>
+      </c>
+      <c r="F55">
+        <v>218</v>
+      </c>
+      <c r="G55">
+        <v>150</v>
+      </c>
+      <c r="H55">
+        <v>99</v>
+      </c>
+      <c r="I55">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56">
+        <v>22</v>
+      </c>
+      <c r="C56">
+        <v>25</v>
+      </c>
+      <c r="D56">
+        <v>12</v>
+      </c>
+      <c r="E56">
+        <v>17</v>
+      </c>
+      <c r="F56">
+        <v>46</v>
+      </c>
+      <c r="G56">
+        <v>53</v>
+      </c>
+      <c r="H56">
+        <v>44</v>
+      </c>
+      <c r="I56">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57">
+        <v>66</v>
+      </c>
+      <c r="C57">
+        <v>37</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>41</v>
+      </c>
+      <c r="F57">
+        <v>122</v>
+      </c>
+      <c r="G57">
+        <v>11</v>
+      </c>
+      <c r="H57">
+        <v>36</v>
+      </c>
+      <c r="I57">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58">
+        <v>20</v>
+      </c>
+      <c r="C58">
+        <v>22</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>15</v>
+      </c>
+      <c r="F58">
+        <v>43</v>
+      </c>
+      <c r="G58">
+        <v>37</v>
+      </c>
+      <c r="H58">
+        <v>37</v>
+      </c>
+      <c r="I58">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="4">
+        <f>B56/B55</f>
+        <v>0.25882352941176473</v>
+      </c>
+      <c r="C59" s="4">
+        <f t="shared" ref="C59:I59" si="11">C56/C55</f>
+        <v>0.27173913043478259</v>
+      </c>
+      <c r="D59" s="4">
+        <f t="shared" si="11"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="E59" s="4">
+        <f t="shared" si="11"/>
+        <v>0.19101123595505617</v>
+      </c>
+      <c r="F59" s="4">
+        <f t="shared" si="11"/>
+        <v>0.21100917431192662</v>
+      </c>
+      <c r="G59" s="4">
+        <f t="shared" si="11"/>
+        <v>0.35333333333333333</v>
+      </c>
+      <c r="H59" s="4">
+        <f t="shared" si="11"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="I59" s="4">
+        <f t="shared" si="11"/>
+        <v>8.1081081081081086E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="4">
+        <f>B57/B55</f>
+        <v>0.77647058823529413</v>
+      </c>
+      <c r="C60" s="4">
+        <f t="shared" ref="C60:I60" si="12">C57/C55</f>
+        <v>0.40217391304347827</v>
+      </c>
+      <c r="D60" s="4">
+        <f t="shared" si="12"/>
+        <v>1.5151515151515152E-2</v>
+      </c>
+      <c r="E60" s="4">
+        <f t="shared" si="12"/>
+        <v>0.4606741573033708</v>
+      </c>
+      <c r="F60" s="4">
+        <f t="shared" si="12"/>
+        <v>0.55963302752293576</v>
+      </c>
+      <c r="G60" s="4">
+        <f t="shared" si="12"/>
+        <v>7.3333333333333334E-2</v>
+      </c>
+      <c r="H60" s="4">
+        <f t="shared" si="12"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="I60" s="4">
+        <f t="shared" si="12"/>
+        <v>0.25061425061425063</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="4">
+        <f>B58/B55</f>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="C61" s="4">
+        <f t="shared" ref="C61:I61" si="13">C58/C55</f>
+        <v>0.2391304347826087</v>
+      </c>
+      <c r="D61" s="4">
+        <f t="shared" si="13"/>
+        <v>3.787878787878788E-2</v>
+      </c>
+      <c r="E61" s="4">
+        <f t="shared" si="13"/>
+        <v>0.16853932584269662</v>
+      </c>
+      <c r="F61" s="4">
+        <f t="shared" si="13"/>
+        <v>0.19724770642201836</v>
+      </c>
+      <c r="G61" s="4">
+        <f t="shared" si="13"/>
+        <v>0.24666666666666667</v>
+      </c>
+      <c r="H61" s="4">
+        <f t="shared" si="13"/>
+        <v>0.37373737373737376</v>
+      </c>
+      <c r="I61" s="4">
+        <f t="shared" si="13"/>
+        <v>7.6167076167076173E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="4">
+        <f>1-(B58/B56)</f>
+        <v>9.0909090909090939E-2</v>
+      </c>
+      <c r="C62" s="4">
+        <f t="shared" ref="C62:I62" si="14">1-(C58/C56)</f>
+        <v>0.12</v>
+      </c>
+      <c r="D62" s="4">
+        <f t="shared" si="14"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="E62" s="4">
+        <f t="shared" si="14"/>
+        <v>0.11764705882352944</v>
+      </c>
+      <c r="F62" s="4">
+        <f t="shared" si="14"/>
+        <v>6.5217391304347783E-2</v>
+      </c>
+      <c r="G62" s="4">
+        <f t="shared" si="14"/>
+        <v>0.30188679245283023</v>
+      </c>
+      <c r="H62" s="4">
+        <f t="shared" si="14"/>
+        <v>0.15909090909090906</v>
+      </c>
+      <c r="I62" s="4">
+        <f t="shared" si="14"/>
+        <v>6.0606060606060552E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="4">
+        <f>1-(B58/B57)</f>
+        <v>0.69696969696969702</v>
+      </c>
+      <c r="C63" s="4">
+        <f t="shared" ref="C63:I63" si="15">1-(C58/C57)</f>
+        <v>0.40540540540540537</v>
+      </c>
+      <c r="D63" s="4">
+        <f t="shared" si="15"/>
+        <v>-1.5</v>
+      </c>
+      <c r="E63" s="4">
+        <f t="shared" si="15"/>
+        <v>0.63414634146341464</v>
+      </c>
+      <c r="F63" s="4">
+        <f t="shared" si="15"/>
+        <v>0.64754098360655732</v>
+      </c>
+      <c r="G63" s="4">
+        <f t="shared" si="15"/>
+        <v>-2.3636363636363638</v>
+      </c>
+      <c r="H63" s="4">
+        <f t="shared" si="15"/>
+        <v>-2.7777777777777679E-2</v>
+      </c>
+      <c r="I63" s="4">
+        <f t="shared" si="15"/>
+        <v>0.69607843137254899</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67">
+        <v>117</v>
+      </c>
+      <c r="C67">
+        <v>189</v>
+      </c>
+      <c r="D67">
+        <v>224</v>
+      </c>
+      <c r="E67">
+        <v>158</v>
+      </c>
+      <c r="F67">
+        <v>436</v>
+      </c>
+      <c r="G67">
+        <v>205</v>
+      </c>
+      <c r="H67">
+        <v>147</v>
+      </c>
+      <c r="I67">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68">
+        <v>62</v>
+      </c>
+      <c r="C68">
+        <v>50</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>69</v>
+      </c>
+      <c r="F68">
+        <v>150</v>
+      </c>
+      <c r="G68">
+        <v>19</v>
+      </c>
+      <c r="H68">
+        <v>27</v>
+      </c>
+      <c r="I68">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" s="3">
+        <f>B68/B67</f>
+        <v>0.52991452991452992</v>
+      </c>
+      <c r="C69" s="3">
+        <f t="shared" ref="C69:I69" si="16">C68/C67</f>
+        <v>0.26455026455026454</v>
+      </c>
+      <c r="D69" s="3">
+        <f t="shared" si="16"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="16"/>
+        <v>0.43670886075949367</v>
+      </c>
+      <c r="F69" s="3">
+        <f t="shared" si="16"/>
+        <v>0.34403669724770641</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="16"/>
+        <v>9.2682926829268292E-2</v>
+      </c>
+      <c r="H69" s="3">
+        <f t="shared" si="16"/>
+        <v>0.18367346938775511</v>
+      </c>
+      <c r="I69" s="3">
+        <f t="shared" si="16"/>
+        <v>0.19593613933236576</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70">
+        <v>36</v>
+      </c>
+      <c r="C70">
+        <v>41</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>45</v>
+      </c>
+      <c r="F70">
+        <v>105</v>
+      </c>
+      <c r="G70">
+        <v>18</v>
+      </c>
+      <c r="H70">
+        <v>23</v>
+      </c>
+      <c r="I70">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="3">
+        <f>1-(B70/B67)</f>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="C71" s="3">
+        <f t="shared" ref="C71:I71" si="17">1-(C70/C67)</f>
+        <v>0.78306878306878303</v>
+      </c>
+      <c r="D71" s="3">
+        <f t="shared" si="17"/>
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="E71" s="3">
+        <f t="shared" si="17"/>
+        <v>0.71518987341772156</v>
+      </c>
+      <c r="F71" s="3">
+        <f t="shared" si="17"/>
+        <v>0.75917431192660545</v>
+      </c>
+      <c r="G71" s="3">
+        <f t="shared" si="17"/>
+        <v>0.91219512195121955</v>
+      </c>
+      <c r="H71" s="3">
+        <f t="shared" si="17"/>
+        <v>0.84353741496598644</v>
+      </c>
+      <c r="I71" s="3">
+        <f t="shared" si="17"/>
+        <v>0.85050798258345428</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="B72" s="3">
+        <f>B70/B67</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="C72" s="3">
+        <f t="shared" ref="C72:I72" si="18">C70/C67</f>
+        <v>0.21693121693121692</v>
+      </c>
+      <c r="D72" s="3">
+        <f t="shared" si="18"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="E72" s="3">
+        <f t="shared" si="18"/>
+        <v>0.2848101265822785</v>
+      </c>
+      <c r="F72" s="3">
+        <f t="shared" si="18"/>
+        <v>0.24082568807339449</v>
+      </c>
+      <c r="G72" s="3">
+        <f t="shared" si="18"/>
+        <v>8.7804878048780483E-2</v>
+      </c>
+      <c r="H72" s="3">
+        <f t="shared" si="18"/>
+        <v>0.15646258503401361</v>
+      </c>
+      <c r="I72" s="3">
+        <f t="shared" si="18"/>
+        <v>0.14949201741654572</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="4">
+        <f>1-(B70/B68)</f>
+        <v>0.41935483870967738</v>
+      </c>
+      <c r="C73" s="4">
+        <f t="shared" ref="C73:I73" si="19">1-(C70/C68)</f>
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="D73" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <f t="shared" si="19"/>
+        <v>0.34782608695652173</v>
+      </c>
+      <c r="F73" s="4">
+        <f t="shared" si="19"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G73" s="4">
+        <f t="shared" si="19"/>
+        <v>5.2631578947368474E-2</v>
+      </c>
+      <c r="H73" s="4">
+        <f t="shared" si="19"/>
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="I73" s="4">
+        <f t="shared" si="19"/>
+        <v>0.23703703703703705</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <v>11</v>
+      </c>
+      <c r="C74">
+        <v>26</v>
+      </c>
+      <c r="D74">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>30</v>
+      </c>
+      <c r="F74">
+        <v>53</v>
+      </c>
+      <c r="G74">
+        <v>27</v>
+      </c>
+      <c r="H74">
+        <v>45</v>
+      </c>
+      <c r="I74">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>24</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>30</v>
+      </c>
+      <c r="F75">
+        <v>45</v>
+      </c>
+      <c r="G75">
+        <v>18</v>
+      </c>
+      <c r="H75">
+        <v>17</v>
+      </c>
+      <c r="I75">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
